--- a/Word/错误代码resCode.xlsx
+++ b/Word/错误代码resCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Superlittlestar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HtmlProjest\Management\vue-admin\Word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50219BB-654C-4785-926C-CF4525D046BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F773850-A96E-46C4-9C23-D3A56318C274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19950" yWindow="1980" windowWidth="7875" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>错误代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>用户邮箱不存在</t>
+  </si>
+  <si>
+    <t>该分类已存在</t>
+  </si>
+  <si>
+    <t>修改不得超过10个字符</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -448,14 +454,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1006</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">

--- a/Word/错误代码resCode.xlsx
+++ b/Word/错误代码resCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23316"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HtmlProjest\Management\vue-admin\Word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F773850-A96E-46C4-9C23-D3A56318C274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CBF8B5-3B36-4519-B36F-618AEDB4C666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19950" yWindow="1980" windowWidth="7875" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>错误代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>修改不得超过10个字符</t>
+  </si>
+  <si>
+    <t>token失效</t>
+  </si>
+  <si>
+    <t>信息不存在</t>
+  </si>
+  <si>
+    <t>分类不存在</t>
   </si>
 </sst>
 </file>
@@ -404,7 +413,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,19 +479,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1009</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
